--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>664640.6340244724</v>
+        <v>730798.859088518</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>911397.4673764087</v>
+        <v>1351021.935782099</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12070588.39707725</v>
+        <v>12291547.34266955</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7693120.196179511</v>
+        <v>7588742.254246169</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>234.288905720311</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>66.65516930006972</v>
+        <v>129.4543293520206</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>99.22041616487701</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>71.30226553376944</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>403.151026706443</v>
       </c>
       <c r="G11" t="n">
-        <v>414.5345316725085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>101.6133076792576</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>191.5145789473921</v>
+        <v>195.797201217492</v>
       </c>
       <c r="T11" t="n">
-        <v>219.7330284880335</v>
+        <v>220.5557242197883</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.431140605695838</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>115.6895799221868</v>
+        <v>71.05448518440456</v>
       </c>
       <c r="T12" t="n">
-        <v>198.508004016692</v>
+        <v>198.9133126223379</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9143408729531</v>
+        <v>225.9209563561791</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.67781038813369</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>104.8285991915091</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.36485610981804</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>1.926026865645317</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.5345316725085</v>
+        <v>403.151026706443</v>
       </c>
       <c r="H14" t="n">
-        <v>331.6074140299677</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2841964404264</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>49.04536592078677</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>36.51377477509981</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>198.508004016692</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>104.8285991915092</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>224.9913792784362</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>233.8431039756075</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>194.6998530054175</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.5968436493441</v>
+        <v>95.26725446313652</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.09268673504618</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.626661895192165</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2140,16 +2140,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>105.0839683962668</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>249.0276152565596</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>213.6113417665672</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>47.68111929704024</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>311.5503547663019</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>56.88196987815806</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>210.2625827712179</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>80.90762679330875</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>128.7835007017901</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.9837618916414</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>67.0765978503803</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.1647165973928</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>221.002178698296</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>249.6139039076595</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>199.8692462101353</v>
+        <v>194.0460320632138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>17.49690079789893</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>260.1956881266422</v>
       </c>
       <c r="G41" t="n">
-        <v>217.5266626076334</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.14271877705625</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>119.8685012283948</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>189.5968436493439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>245.4670765798969</v>
       </c>
       <c r="Y44" t="n">
-        <v>207.4413811353649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.3297677076785</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>172.9082171026093</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F2" t="n">
         <v>262.7299197543128</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="4">
@@ -4518,13 +4518,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.7661011803829</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="C6" t="n">
-        <v>158.7661011803829</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D6" t="n">
-        <v>158.7661011803829</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E6" t="n">
-        <v>158.7661011803829</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4658,40 +4658,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>622.1418276757365</v>
+        <v>833.2952066702114</v>
       </c>
       <c r="U6" t="n">
-        <v>393.9182094121256</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="V6" t="n">
-        <v>158.7661011803829</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="W6" t="n">
-        <v>158.7661011803829</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="X6" t="n">
-        <v>158.7661011803829</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.7661011803829</v>
+        <v>605.0715884066004</v>
       </c>
     </row>
     <row r="7">
@@ -4752,13 +4752,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E8" t="n">
-        <v>718.7806050553886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
         <v>475.3318284112885</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>938.3268225766362</v>
+        <v>1183.529292640947</v>
       </c>
       <c r="C11" t="n">
-        <v>866.3043321384853</v>
+        <v>1183.529292640947</v>
       </c>
       <c r="D11" t="n">
-        <v>866.3043321384853</v>
+        <v>825.263594034197</v>
       </c>
       <c r="E11" t="n">
-        <v>866.3043321384853</v>
+        <v>439.4753414359528</v>
       </c>
       <c r="F11" t="n">
-        <v>455.3184273488777</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="G11" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="H11" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="I11" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="J11" t="n">
-        <v>89.31538725293296</v>
+        <v>69.17935336476796</v>
       </c>
       <c r="K11" t="n">
-        <v>289.0718704783264</v>
+        <v>245.268564776039</v>
       </c>
       <c r="L11" t="n">
-        <v>589.1640791381769</v>
+        <v>515.9994299471387</v>
       </c>
       <c r="M11" t="n">
-        <v>939.6810283235448</v>
+        <v>833.8462271760467</v>
       </c>
       <c r="N11" t="n">
-        <v>1281.237710655107</v>
+        <v>1142.204120336901</v>
       </c>
       <c r="O11" t="n">
-        <v>1558.572362542936</v>
+        <v>1388.190097017657</v>
       </c>
       <c r="P11" t="n">
-        <v>1757.596688657723</v>
+        <v>1560.459054120441</v>
       </c>
       <c r="Q11" t="n">
-        <v>1829.833909236386</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="R11" t="n">
-        <v>1727.194204509863</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="S11" t="n">
-        <v>1533.745134866033</v>
+        <v>1414.829156101032</v>
       </c>
       <c r="T11" t="n">
-        <v>1311.792580837716</v>
+        <v>1192.045596283064</v>
       </c>
       <c r="U11" t="n">
-        <v>1311.792580837716</v>
+        <v>1183.529292640947</v>
       </c>
       <c r="V11" t="n">
-        <v>1311.792580837716</v>
+        <v>1183.529292640947</v>
       </c>
       <c r="W11" t="n">
-        <v>1311.792580837716</v>
+        <v>1183.529292640947</v>
       </c>
       <c r="X11" t="n">
-        <v>938.3268225766362</v>
+        <v>1183.529292640947</v>
       </c>
       <c r="Y11" t="n">
-        <v>938.3268225766362</v>
+        <v>1183.529292640947</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>211.0497074658547</v>
+        <v>206.7051114176425</v>
       </c>
       <c r="C12" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="D12" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="E12" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="F12" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="G12" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="H12" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="I12" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="J12" t="n">
-        <v>36.59667818472771</v>
+        <v>60.55233221992595</v>
       </c>
       <c r="K12" t="n">
-        <v>36.59667818472771</v>
+        <v>235.5428103247979</v>
       </c>
       <c r="L12" t="n">
-        <v>350.1268696242952</v>
+        <v>532.2434995899052</v>
       </c>
       <c r="M12" t="n">
-        <v>773.5654479233037</v>
+        <v>930.4584311351755</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.918198796531</v>
+        <v>940.7538702373646</v>
       </c>
       <c r="O12" t="n">
-        <v>1569.487304043009</v>
+        <v>1262.637547658847</v>
       </c>
       <c r="P12" t="n">
-        <v>1829.833909236386</v>
+        <v>1503.974508878461</v>
       </c>
       <c r="Q12" t="n">
-        <v>1829.833909236386</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="R12" t="n">
-        <v>1829.833909236386</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="S12" t="n">
-        <v>1712.975747698823</v>
+        <v>1540.831899568798</v>
       </c>
       <c r="T12" t="n">
-        <v>1512.462612328427</v>
+        <v>1339.909361566436</v>
       </c>
       <c r="U12" t="n">
-        <v>1284.266308416354</v>
+        <v>1111.706375348073</v>
       </c>
       <c r="V12" t="n">
-        <v>1049.114200184611</v>
+        <v>876.5542671163307</v>
       </c>
       <c r="W12" t="n">
-        <v>794.8768434564095</v>
+        <v>622.3169103881291</v>
       </c>
       <c r="X12" t="n">
-        <v>587.0253432508766</v>
+        <v>414.4654101825964</v>
       </c>
       <c r="Y12" t="n">
-        <v>379.2650444859228</v>
+        <v>206.7051114176425</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.59667818472771</v>
+        <v>68.29027444776159</v>
       </c>
       <c r="C13" t="n">
-        <v>36.59667818472771</v>
+        <v>68.29027444776159</v>
       </c>
       <c r="D13" t="n">
-        <v>36.59667818472771</v>
+        <v>68.29027444776159</v>
       </c>
       <c r="E13" t="n">
-        <v>36.59667818472771</v>
+        <v>68.29027444776159</v>
       </c>
       <c r="F13" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="G13" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="H13" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="I13" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="J13" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="K13" t="n">
-        <v>54.1847029667334</v>
+        <v>40.14366518253755</v>
       </c>
       <c r="L13" t="n">
-        <v>132.2177539456674</v>
+        <v>105.7686091074594</v>
       </c>
       <c r="M13" t="n">
-        <v>224.8817882563782</v>
+        <v>185.3500342746988</v>
       </c>
       <c r="N13" t="n">
-        <v>320.7770953673339</v>
+        <v>268.4738074465456</v>
       </c>
       <c r="O13" t="n">
-        <v>393.3356370750315</v>
+        <v>329.2357704288072</v>
       </c>
       <c r="P13" t="n">
-        <v>431.9013221525056</v>
+        <v>357.7074444847222</v>
       </c>
       <c r="Q13" t="n">
-        <v>431.9013221525056</v>
+        <v>357.7074444847222</v>
       </c>
       <c r="R13" t="n">
-        <v>431.9013221525056</v>
+        <v>357.7074444847222</v>
       </c>
       <c r="S13" t="n">
-        <v>431.9013221525056</v>
+        <v>357.7074444847222</v>
       </c>
       <c r="T13" t="n">
-        <v>431.9013221525056</v>
+        <v>357.7074444847222</v>
       </c>
       <c r="U13" t="n">
-        <v>326.0138482216883</v>
+        <v>357.7074444847222</v>
       </c>
       <c r="V13" t="n">
-        <v>326.0138482216883</v>
+        <v>357.7074444847222</v>
       </c>
       <c r="W13" t="n">
-        <v>36.59667818472771</v>
+        <v>68.29027444776159</v>
       </c>
       <c r="X13" t="n">
-        <v>36.59667818472771</v>
+        <v>68.29027444776159</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.59667818472771</v>
+        <v>68.29027444776159</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1159.237928157944</v>
+        <v>1338.940750328328</v>
       </c>
       <c r="C14" t="n">
-        <v>790.275411217532</v>
+        <v>1336.995268645858</v>
       </c>
       <c r="D14" t="n">
-        <v>790.275411217532</v>
+        <v>978.7295700391073</v>
       </c>
       <c r="E14" t="n">
-        <v>790.275411217532</v>
+        <v>592.9413174408631</v>
       </c>
       <c r="F14" t="n">
-        <v>790.275411217532</v>
+        <v>592.9413174408631</v>
       </c>
       <c r="G14" t="n">
-        <v>371.553662053382</v>
+        <v>185.7180581414258</v>
       </c>
       <c r="H14" t="n">
-        <v>36.59667818472771</v>
+        <v>185.7180581414258</v>
       </c>
       <c r="I14" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="J14" t="n">
-        <v>89.31538725293296</v>
+        <v>148.0199383694652</v>
       </c>
       <c r="K14" t="n">
-        <v>289.0718704783264</v>
+        <v>148.0199383694652</v>
       </c>
       <c r="L14" t="n">
-        <v>589.1640791381766</v>
+        <v>547.1394548088437</v>
       </c>
       <c r="M14" t="n">
-        <v>939.6810283235446</v>
+        <v>583.077376808975</v>
       </c>
       <c r="N14" t="n">
-        <v>1281.237710655107</v>
+        <v>755.17881901086</v>
       </c>
       <c r="O14" t="n">
-        <v>1558.572362542936</v>
+        <v>1154.298335450238</v>
       </c>
       <c r="P14" t="n">
-        <v>1757.596688657723</v>
+        <v>1460.146575598802</v>
       </c>
       <c r="Q14" t="n">
-        <v>1829.833909236386</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="R14" t="n">
-        <v>1829.833909236386</v>
+        <v>1557.575417356265</v>
       </c>
       <c r="S14" t="n">
-        <v>1829.833909236386</v>
+        <v>1557.575417356265</v>
       </c>
       <c r="T14" t="n">
-        <v>1829.833909236386</v>
+        <v>1338.940750328328</v>
       </c>
       <c r="U14" t="n">
-        <v>1576.01148858949</v>
+        <v>1338.940750328328</v>
       </c>
       <c r="V14" t="n">
-        <v>1576.01148858949</v>
+        <v>1338.940750328328</v>
       </c>
       <c r="W14" t="n">
-        <v>1223.242833319376</v>
+        <v>1338.940750328328</v>
       </c>
       <c r="X14" t="n">
-        <v>1223.242833319376</v>
+        <v>1338.940750328328</v>
       </c>
       <c r="Y14" t="n">
-        <v>1223.242833319376</v>
+        <v>1338.940750328328</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>519.2215721325615</v>
+        <v>515.171936481976</v>
       </c>
       <c r="C15" t="n">
-        <v>344.7685428514345</v>
+        <v>515.171936481976</v>
       </c>
       <c r="D15" t="n">
-        <v>195.8341331901832</v>
+        <v>366.2375268207247</v>
       </c>
       <c r="E15" t="n">
-        <v>36.59667818472771</v>
+        <v>316.6967531633643</v>
       </c>
       <c r="F15" t="n">
-        <v>36.59667818472771</v>
+        <v>170.1621951902493</v>
       </c>
       <c r="G15" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="H15" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="I15" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="J15" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="K15" t="n">
-        <v>227.6622645210759</v>
+        <v>287.499402577614</v>
       </c>
       <c r="L15" t="n">
-        <v>545.9779205949734</v>
+        <v>686.6189190169925</v>
       </c>
       <c r="M15" t="n">
-        <v>969.416498893982</v>
+        <v>941.2673483600721</v>
       </c>
       <c r="N15" t="n">
-        <v>1419.769249767209</v>
+        <v>1020.444933859505</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.338355013688</v>
+        <v>1419.564450298884</v>
       </c>
       <c r="P15" t="n">
-        <v>1829.833909236386</v>
+        <v>1440.531122960175</v>
       </c>
       <c r="Q15" t="n">
-        <v>1829.833909236386</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="R15" t="n">
-        <v>1829.833909236386</v>
+        <v>1562.390736237597</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.951308453456</v>
+        <v>1404.217763881513</v>
       </c>
       <c r="T15" t="n">
-        <v>1592.438173083061</v>
+        <v>1205.339216004292</v>
       </c>
       <c r="U15" t="n">
-        <v>1592.438173083061</v>
+        <v>977.1695919751315</v>
       </c>
       <c r="V15" t="n">
-        <v>1357.286064851318</v>
+        <v>977.1695919751315</v>
       </c>
       <c r="W15" t="n">
-        <v>1103.048708123116</v>
+        <v>722.9322352469298</v>
       </c>
       <c r="X15" t="n">
-        <v>895.1972079175835</v>
+        <v>722.9322352469298</v>
       </c>
       <c r="Y15" t="n">
-        <v>687.4369091526296</v>
+        <v>515.171936481976</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
       <c r="C16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
       <c r="D16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
       <c r="E16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
       <c r="F16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
       <c r="G16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
       <c r="H16" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="I16" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="J16" t="n">
-        <v>36.59667818472771</v>
+        <v>32.25208213651544</v>
       </c>
       <c r="K16" t="n">
-        <v>54.1847029667334</v>
+        <v>88.55427520278359</v>
       </c>
       <c r="L16" t="n">
-        <v>132.2177539456674</v>
+        <v>216.128132763942</v>
       </c>
       <c r="M16" t="n">
-        <v>224.8817882563782</v>
+        <v>361.0260014819719</v>
       </c>
       <c r="N16" t="n">
-        <v>320.7770953673339</v>
+        <v>507.913139166401</v>
       </c>
       <c r="O16" t="n">
-        <v>393.3356370750316</v>
+        <v>627.5708896756411</v>
       </c>
       <c r="P16" t="n">
-        <v>431.9013221525057</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="Q16" t="n">
-        <v>431.9013221525057</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="R16" t="n">
-        <v>431.9013221525057</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="S16" t="n">
-        <v>431.9013221525057</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="T16" t="n">
-        <v>431.9013221525057</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="U16" t="n">
-        <v>326.0138482216883</v>
+        <v>417.2644741771531</v>
       </c>
       <c r="V16" t="n">
-        <v>326.0138482216883</v>
+        <v>417.2644741771531</v>
       </c>
       <c r="W16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
       <c r="X16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.59667818472771</v>
+        <v>190.0004547039853</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>840.8693068625894</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C17" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D17" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E17" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
         <v>471.9067899221776</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2284.766447801476</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>1953.703560457905</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>1600.934905187791</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="X17" t="n">
-        <v>1227.469146926711</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y17" t="n">
-        <v>1227.469146926711</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>536.6170209242687</v>
+        <v>631.89943424367</v>
       </c>
       <c r="T19" t="n">
-        <v>536.6170209242687</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>935.7408973472311</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C20" t="n">
-        <v>566.7783804068195</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D20" t="n">
-        <v>208.5126818000689</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E20" t="n">
-        <v>207.4089578252748</v>
+        <v>886.5559895554136</v>
       </c>
       <c r="F20" t="n">
-        <v>207.4089578252748</v>
+        <v>475.570084765806</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>57.6062766639929</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>1695.806495672433</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X20" t="n">
-        <v>1322.340737411353</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y20" t="n">
-        <v>1322.340737411353</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5837,19 +5837,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5867,7 +5867,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5916,43 +5916,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
         <v>53.94298182036445</v>
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2255.520561484594</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>1886.558044544182</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1528.292345937431</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1142.504093339187</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>731.5181885495797</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>313.5543804477666</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>1642.146705571109</v>
       </c>
       <c r="X23" t="n">
-        <v>2642.120401548716</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y23" t="n">
-        <v>2642.120401548716</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.68094731003</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1316.843694074716</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>931.0554414764722</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>520.0695366868647</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>102.1057285850516</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6229,16 +6229,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6256,22 +6256,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>1936.146930626913</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W26" t="n">
-        <v>1583.378275356799</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X26" t="n">
-        <v>1268.68094731003</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y26" t="n">
-        <v>1268.68094731003</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1404.543549400789</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C29" t="n">
-        <v>1035.581032460377</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D29" t="n">
-        <v>677.3153338536265</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E29" t="n">
-        <v>677.3153338536265</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>266.3294290640189</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2615.424215469426</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.514423990285</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="V29" t="n">
-        <v>2147.451536646714</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="W29" t="n">
-        <v>1794.6828813766</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="X29" t="n">
-        <v>1794.6828813766</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="Y29" t="n">
-        <v>1404.543549400789</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424003</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C31" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D31" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E31" t="n">
-        <v>184.0273259635867</v>
+        <v>291.042280278609</v>
       </c>
       <c r="F31" t="n">
-        <v>184.0273259635867</v>
+        <v>144.1523327806987</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X31" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205145</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="W32" t="n">
-        <v>2311.057514205145</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X32" t="n">
-        <v>1937.591755944065</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y32" t="n">
-        <v>1547.452423968253</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>659.2757351181587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>659.2757351181587</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>404.5912469122717</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="C35" t="n">
-        <v>1491.915471247702</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1697.433024561957</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.0273259635867</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C37" t="n">
-        <v>184.0273259635867</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7131,16 +7131,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.0273259635867</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1470.569074795015</v>
+        <v>1464.687040303175</v>
       </c>
       <c r="C38" t="n">
-        <v>1470.569074795015</v>
+        <v>1464.687040303175</v>
       </c>
       <c r="D38" t="n">
-        <v>1470.569074795015</v>
+        <v>1464.687040303175</v>
       </c>
       <c r="E38" t="n">
-        <v>1084.78082219677</v>
+        <v>1078.89878770493</v>
       </c>
       <c r="F38" t="n">
-        <v>673.7949174071628</v>
+        <v>667.9128829153228</v>
       </c>
       <c r="G38" t="n">
-        <v>255.8311093053496</v>
+        <v>249.9490748135097</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036444</v>
@@ -7174,16 +7174,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V38" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W38" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="X38" t="n">
-        <v>2247.308246834948</v>
+        <v>1851.286880367296</v>
       </c>
       <c r="Y38" t="n">
-        <v>1857.168914859136</v>
+        <v>1851.286880367296</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517452</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>211.4036268380754</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036444</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U40" t="n">
-        <v>500.820796875036</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V40" t="n">
-        <v>500.820796875036</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W40" t="n">
-        <v>211.4036268380754</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X40" t="n">
-        <v>211.4036268380754</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y40" t="n">
-        <v>211.4036268380754</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1053.094737196452</v>
+        <v>1049.82677907582</v>
       </c>
       <c r="C41" t="n">
-        <v>1053.094737196452</v>
+        <v>680.8642621354084</v>
       </c>
       <c r="D41" t="n">
-        <v>1053.094737196452</v>
+        <v>680.8642621354084</v>
       </c>
       <c r="E41" t="n">
-        <v>667.3064845982074</v>
+        <v>295.0760095371641</v>
       </c>
       <c r="F41" t="n">
-        <v>256.3205798085998</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="G41" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="H41" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="I41" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="J41" t="n">
-        <v>152.3645344176774</v>
+        <v>148.0199383694652</v>
       </c>
       <c r="K41" t="n">
-        <v>446.6153454376759</v>
+        <v>442.2707493894636</v>
       </c>
       <c r="L41" t="n">
-        <v>863.9361234867707</v>
+        <v>841.3902658288421</v>
       </c>
       <c r="M41" t="n">
-        <v>1304.889200116588</v>
+        <v>882.1306560224336</v>
       </c>
       <c r="N41" t="n">
-        <v>1346.022443645455</v>
+        <v>1281.250172461812</v>
       </c>
       <c r="O41" t="n">
-        <v>1371.528137860852</v>
+        <v>1306.755866677209</v>
       </c>
       <c r="P41" t="n">
-        <v>1677.376378009415</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="Q41" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="R41" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="S41" t="n">
-        <v>1829.833909236385</v>
+        <v>1436.426619139942</v>
       </c>
       <c r="T41" t="n">
-        <v>1829.833909236385</v>
+        <v>1436.426619139942</v>
       </c>
       <c r="U41" t="n">
-        <v>1829.833909236385</v>
+        <v>1436.426619139942</v>
       </c>
       <c r="V41" t="n">
-        <v>1829.833909236385</v>
+        <v>1436.426619139942</v>
       </c>
       <c r="W41" t="n">
-        <v>1829.833909236385</v>
+        <v>1436.426619139942</v>
       </c>
       <c r="X41" t="n">
-        <v>1829.833909236385</v>
+        <v>1436.426619139942</v>
       </c>
       <c r="Y41" t="n">
-        <v>1439.694577260573</v>
+        <v>1436.426619139942</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>273.0923539128327</v>
+        <v>538.7614616959675</v>
       </c>
       <c r="C42" t="n">
-        <v>98.63932463170568</v>
+        <v>364.3084324148405</v>
       </c>
       <c r="D42" t="n">
-        <v>98.63932463170568</v>
+        <v>215.3740227535892</v>
       </c>
       <c r="E42" t="n">
-        <v>98.63932463170568</v>
+        <v>215.3740227535892</v>
       </c>
       <c r="F42" t="n">
-        <v>98.63932463170568</v>
+        <v>215.3740227535892</v>
       </c>
       <c r="G42" t="n">
-        <v>98.63932463170568</v>
+        <v>94.29472858349341</v>
       </c>
       <c r="H42" t="n">
-        <v>98.63932463170568</v>
+        <v>94.29472858349341</v>
       </c>
       <c r="I42" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="J42" t="n">
-        <v>111.8538405848575</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="K42" t="n">
-        <v>367.101161025956</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="L42" t="n">
-        <v>771.7170791216279</v>
+        <v>431.3715985758939</v>
       </c>
       <c r="M42" t="n">
-        <v>1224.600971657633</v>
+        <v>798.0621912721309</v>
       </c>
       <c r="N42" t="n">
-        <v>1677.484864193638</v>
+        <v>877.2397767715643</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.867236575094</v>
+        <v>1276.359293210943</v>
       </c>
       <c r="P42" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="Q42" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="R42" t="n">
-        <v>1779.62053864821</v>
+        <v>1562.390736237596</v>
       </c>
       <c r="S42" t="n">
-        <v>1621.447566292126</v>
+        <v>1404.217763881513</v>
       </c>
       <c r="T42" t="n">
-        <v>1422.569018414905</v>
+        <v>1404.217763881513</v>
       </c>
       <c r="U42" t="n">
-        <v>1194.399394385745</v>
+        <v>1404.217763881513</v>
       </c>
       <c r="V42" t="n">
-        <v>959.247286154002</v>
+        <v>1169.06565564977</v>
       </c>
       <c r="W42" t="n">
-        <v>705.0099294258005</v>
+        <v>914.8282989215684</v>
       </c>
       <c r="X42" t="n">
-        <v>497.1584292202676</v>
+        <v>706.9767987160355</v>
       </c>
       <c r="Y42" t="n">
-        <v>289.3981304553137</v>
+        <v>706.9767987160355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="C43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="D43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="E43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="F43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="G43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="H43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="I43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="J43" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="K43" t="n">
-        <v>92.89887125099582</v>
+        <v>88.55427520278357</v>
       </c>
       <c r="L43" t="n">
-        <v>220.4727288121542</v>
+        <v>216.128132763942</v>
       </c>
       <c r="M43" t="n">
-        <v>365.3705975301841</v>
+        <v>361.0260014819719</v>
       </c>
       <c r="N43" t="n">
-        <v>512.2577352146131</v>
+        <v>507.913139166401</v>
       </c>
       <c r="O43" t="n">
-        <v>631.9154857238533</v>
+        <v>627.5708896756411</v>
       </c>
       <c r="P43" t="n">
-        <v>710.7826805707974</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="Q43" t="n">
-        <v>710.7826805707974</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="R43" t="n">
-        <v>710.7826805707974</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="S43" t="n">
-        <v>710.7826805707974</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="T43" t="n">
-        <v>710.7826805707974</v>
+        <v>503.3177170037158</v>
       </c>
       <c r="U43" t="n">
-        <v>710.7826805707974</v>
+        <v>503.3177170037158</v>
       </c>
       <c r="V43" t="n">
-        <v>456.0981923649106</v>
+        <v>503.3177170037158</v>
       </c>
       <c r="W43" t="n">
-        <v>264.586229082745</v>
+        <v>213.9005469667551</v>
       </c>
       <c r="X43" t="n">
-        <v>36.5966781847277</v>
+        <v>213.9005469667551</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.5966781847277</v>
+        <v>213.9005469667551</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1620.297160614804</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="C44" t="n">
-        <v>1251.334643674393</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="D44" t="n">
-        <v>1251.334643674393</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="E44" t="n">
-        <v>865.5463910761484</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="F44" t="n">
-        <v>454.5604862865408</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="G44" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="H44" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="I44" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="J44" t="n">
-        <v>152.3645344176774</v>
+        <v>148.0199383694652</v>
       </c>
       <c r="K44" t="n">
-        <v>210.1498813083403</v>
+        <v>442.2707493894636</v>
       </c>
       <c r="L44" t="n">
-        <v>627.4706593574351</v>
+        <v>841.3902658288421</v>
       </c>
       <c r="M44" t="n">
-        <v>1080.35455189344</v>
+        <v>877.3281878289733</v>
       </c>
       <c r="N44" t="n">
-        <v>1121.487795422307</v>
+        <v>918.4614313578404</v>
       </c>
       <c r="O44" t="n">
-        <v>1523.985669087822</v>
+        <v>1154.298335450238</v>
       </c>
       <c r="P44" t="n">
-        <v>1829.833909236385</v>
+        <v>1460.146575598802</v>
       </c>
       <c r="Q44" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="R44" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="S44" t="n">
-        <v>1829.833909236385</v>
+        <v>1436.426619139942</v>
       </c>
       <c r="T44" t="n">
-        <v>1829.833909236385</v>
+        <v>1217.791952112005</v>
       </c>
       <c r="U44" t="n">
-        <v>1829.833909236385</v>
+        <v>964.0301667500961</v>
       </c>
       <c r="V44" t="n">
-        <v>1829.833909236385</v>
+        <v>632.9672794065254</v>
       </c>
       <c r="W44" t="n">
-        <v>1829.833909236385</v>
+        <v>280.1986241364113</v>
       </c>
       <c r="X44" t="n">
-        <v>1829.833909236385</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="Y44" t="n">
-        <v>1620.297160614804</v>
+        <v>32.25208213651543</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>383.0839956585546</v>
+        <v>754.1302888428088</v>
       </c>
       <c r="C45" t="n">
-        <v>383.0839956585546</v>
+        <v>579.6772595616818</v>
       </c>
       <c r="D45" t="n">
-        <v>383.0839956585546</v>
+        <v>430.7428499004305</v>
       </c>
       <c r="E45" t="n">
-        <v>383.0839956585546</v>
+        <v>271.505394894975</v>
       </c>
       <c r="F45" t="n">
-        <v>236.5494376854396</v>
+        <v>271.505394894975</v>
       </c>
       <c r="G45" t="n">
-        <v>98.63932463170568</v>
+        <v>133.5952818412412</v>
       </c>
       <c r="H45" t="n">
-        <v>98.63932463170568</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="I45" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="J45" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="K45" t="n">
-        <v>291.8439986258262</v>
+        <v>287.4994025776139</v>
       </c>
       <c r="L45" t="n">
-        <v>696.4599167214981</v>
+        <v>324.9833788228612</v>
       </c>
       <c r="M45" t="n">
-        <v>759.558817167029</v>
+        <v>724.1028952622396</v>
       </c>
       <c r="N45" t="n">
-        <v>881.3801887356155</v>
+        <v>1123.222411701618</v>
       </c>
       <c r="O45" t="n">
-        <v>1321.516111755959</v>
+        <v>1522.341928140997</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.760925370788</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="Q45" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="R45" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="S45" t="n">
-        <v>1829.833909236385</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="T45" t="n">
-        <v>1630.955361359164</v>
+        <v>1612.604106825772</v>
       </c>
       <c r="U45" t="n">
-        <v>1456.300596609054</v>
+        <v>1384.434482796611</v>
       </c>
       <c r="V45" t="n">
-        <v>1221.148488377311</v>
+        <v>1384.434482796611</v>
       </c>
       <c r="W45" t="n">
-        <v>966.9111316491094</v>
+        <v>1130.19712606841</v>
       </c>
       <c r="X45" t="n">
-        <v>759.0596314435766</v>
+        <v>922.3456258628769</v>
       </c>
       <c r="Y45" t="n">
-        <v>551.2993326786227</v>
+        <v>922.3456258628769</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.9245820194785</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="C46" t="n">
-        <v>166.9245820194785</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="D46" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="E46" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="F46" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="G46" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="H46" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="I46" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="J46" t="n">
-        <v>36.5966781847277</v>
+        <v>32.25208213651543</v>
       </c>
       <c r="K46" t="n">
-        <v>92.89887125099582</v>
+        <v>88.55427520278357</v>
       </c>
       <c r="L46" t="n">
-        <v>220.4727288121542</v>
+        <v>216.128132763942</v>
       </c>
       <c r="M46" t="n">
-        <v>365.3705975301841</v>
+        <v>361.0260014819719</v>
       </c>
       <c r="N46" t="n">
-        <v>512.2577352146131</v>
+        <v>507.913139166401</v>
       </c>
       <c r="O46" t="n">
-        <v>631.9154857238533</v>
+        <v>627.5708896756411</v>
       </c>
       <c r="P46" t="n">
-        <v>710.7826805707974</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="Q46" t="n">
-        <v>710.7826805707974</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="R46" t="n">
-        <v>710.7826805707974</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="S46" t="n">
-        <v>710.7826805707974</v>
+        <v>706.4380845225852</v>
       </c>
       <c r="T46" t="n">
-        <v>710.7826805707974</v>
+        <v>503.0741573121872</v>
       </c>
       <c r="U46" t="n">
-        <v>421.6090702253654</v>
+        <v>213.9005469667551</v>
       </c>
       <c r="V46" t="n">
-        <v>166.9245820194785</v>
+        <v>213.9005469667551</v>
       </c>
       <c r="W46" t="n">
-        <v>166.9245820194785</v>
+        <v>213.9005469667551</v>
       </c>
       <c r="X46" t="n">
-        <v>166.9245820194785</v>
+        <v>213.9005469667551</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.9245820194785</v>
+        <v>213.9005469667551</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>88.00464920030083</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>71.46969525869157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>366.0065426425198</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>60.99280854251163</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.51461953511338</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682282</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>399.2761018133633</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>132.2911097707252</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>377.3876992161431</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>88.00464920030083</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>365.2884244385164</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>193.4843726237865</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>352.4316055585827</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6334242251105</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.51461953511338</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11065,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>399.2761018133632</v>
       </c>
       <c r="M41" t="n">
-        <v>409.1062167976628</v>
+        <v>4.850977973192194</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>361.6022958692034</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448827</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>365.2884244385164</v>
       </c>
       <c r="M42" t="n">
-        <v>393.7222142328025</v>
+        <v>306.6582750007133</v>
       </c>
       <c r="N42" t="n">
-        <v>377.4811182187596</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>81.99004590411505</v>
+        <v>352.4316055585828</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>36.26619292211501</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>85.29140840011868</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>399.2761018133632</v>
       </c>
       <c r="M44" t="n">
-        <v>421.1575459958324</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>212.4557675525265</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.3174843700358</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>339.4147636301491</v>
       </c>
       <c r="N45" t="n">
-        <v>43.07453138298305</v>
+        <v>323.1736676161062</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>352.4316055585826</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>69.99546062978175</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>172.5871400214005</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>131.1259181763289</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22865,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,13 +22880,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>133.5095593947519</v>
+        <v>70.71039934280105</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>149.0972843361114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>355.153891063734</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>106.5525690386005</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>293.9706262372381</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.725019035268474</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.7224690184262</v>
       </c>
       <c r="H11" t="n">
-        <v>331.6074140299677</v>
+        <v>333.5321273738475</v>
       </c>
       <c r="I11" t="n">
-        <v>180.8596338225446</v>
+        <v>188.1050883510372</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>113.4188269847612</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2841964404264</v>
+        <v>242.8680908224039</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9324908012807</v>
+        <v>137.0330461463159</v>
       </c>
       <c r="H12" t="n">
-        <v>108.2657948989106</v>
+        <v>109.2369478364866</v>
       </c>
       <c r="I12" t="n">
-        <v>75.24506732005757</v>
+        <v>78.70717020832828</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>74.63814476896201</v>
+        <v>80.881396805441</v>
       </c>
       <c r="S12" t="n">
-        <v>48.35895678352379</v>
+        <v>94.86182295211192</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>109.7432376347976</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6463886638871</v>
+        <v>167.7306908872916</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1634479684299</v>
+        <v>159.9129713728807</v>
       </c>
       <c r="I13" t="n">
-        <v>145.0876929486858</v>
+        <v>147.6228907216133</v>
       </c>
       <c r="J13" t="n">
-        <v>68.99661801045804</v>
+        <v>74.95678520515493</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.30727154533665</v>
+        <v>64.36643317968836</v>
       </c>
       <c r="R13" t="n">
-        <v>161.7993406921575</v>
+        <v>165.5898752099627</v>
       </c>
       <c r="S13" t="n">
-        <v>218.011322023392</v>
+        <v>219.4804798621774</v>
       </c>
       <c r="T13" t="n">
-        <v>226.4732473696572</v>
+        <v>226.8334477787491</v>
       </c>
       <c r="U13" t="n">
-        <v>181.4716343089142</v>
+        <v>286.3048318035181</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319.3689855536625</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>363.3468649053622</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>10.63314331435203</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>180.8596338225446</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>101.6133076792576</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>191.5145789473921</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>219.7330284880335</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>108.5997145346142</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9324908012807</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>108.2657948989106</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>75.24506732005757</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.63814476896199</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5347619306108</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9143408729531</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6463886638871</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>159.1634479684299</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.0876929486858</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>68.99661801045802</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.30727154533665</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>161.7993406921575</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>218.011322023392</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>226.4732473696572</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>181.4716343089142</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>17.38106353268176</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>154.5411157119955</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>22.54869530067481</v>
+        <v>116.8782844868824</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>380.8376833372156</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>320.296110869165</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.1333486527698</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>218.8388043680903</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>100.2133534608535</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24417,13 +24417,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>11.42376369151711</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>276.2416534673169</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>58.18074591216714</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,25 +24651,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>195.2556734456699</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>203.5215872495771</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,16 +24733,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>135.5406935643491</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.52630155726084</v>
+        <v>78.00254480832002</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.7500797718391</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>184.147569657909</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25128,16 +25128,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>156.8703888606915</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>133.680862922387</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>136.6240347483941</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>19.83197231642228</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950185</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25371,16 +25371,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>124.0535265542218</v>
+        <v>129.8767407011433</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>11.36078253109403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853701</v>
@@ -25596,13 +25596,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.5382046601853</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>146.6803576150692</v>
       </c>
       <c r="G41" t="n">
-        <v>196.2575074131616</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25678,7 +25678,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.3904648728111</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>16.6625106948017</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>23.94594161440355</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>96.92615468724713</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25915,25 +25915,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>124.2640240985722</v>
       </c>
       <c r="Y44" t="n">
-        <v>178.7965575206887</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>4.058586447629096</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,13 +25997,13 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>52.97971068625932</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>19.59084822180907</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26076,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>23.70481751979025</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474034.2762748722</v>
+        <v>474034.2762748721</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627860.9246644684</v>
+        <v>589934.3505385662</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>627860.9246644683</v>
+        <v>595836.4677023165</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779287.1708210207</v>
+        <v>779287.1708210205</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779287.1708210206</v>
+        <v>779287.1708210205</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779287.1708210205</v>
+        <v>779287.1708210207</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779287.1708210205</v>
+        <v>779287.1708210206</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779287.1708210205</v>
+        <v>779287.1708210207</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632580.8725646348</v>
+        <v>595836.4677023165</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632580.872564635</v>
+        <v>595836.4677023165</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>174468.7061578989</v>
       </c>
       <c r="D2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="E2" t="n">
-        <v>239582.0269067432</v>
+        <v>223545.3697798761</v>
       </c>
       <c r="F2" t="n">
-        <v>239582.0269067432</v>
+        <v>236215.1944448973</v>
       </c>
       <c r="G2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="H2" t="n">
         <v>303610.2405165454</v>
@@ -26343,19 +26343,19 @@
         <v>303610.2405165454</v>
       </c>
       <c r="L2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="M2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="N2" t="n">
         <v>303610.2405165453</v>
       </c>
-      <c r="M2" t="n">
-        <v>303610.2405165454</v>
-      </c>
-      <c r="N2" t="n">
-        <v>303610.2405165456</v>
-      </c>
       <c r="O2" t="n">
-        <v>249714.138937734</v>
+        <v>236215.1944448973</v>
       </c>
       <c r="P2" t="n">
-        <v>249714.138937734</v>
+        <v>236215.1944448972</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>218148.7189411831</v>
+        <v>164375.0888589649</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>184491.3456066658</v>
       </c>
       <c r="G3" t="n">
-        <v>204549.3822392231</v>
+        <v>74314.37799809694</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53938.75753386791</v>
+        <v>40405.12361388428</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>67120.16107081145</v>
       </c>
       <c r="E4" t="n">
-        <v>69182.0471148603</v>
+        <v>68632.44813659572</v>
       </c>
       <c r="F4" t="n">
-        <v>69182.04711486028</v>
+        <v>44984.3221961457</v>
       </c>
       <c r="G4" t="n">
         <v>71376.38478147394</v>
       </c>
       <c r="H4" t="n">
-        <v>71376.38478147393</v>
+        <v>71376.38478147394</v>
       </c>
       <c r="I4" t="n">
         <v>71376.38478147394</v>
@@ -26444,22 +26444,22 @@
         <v>71376.38478147394</v>
       </c>
       <c r="K4" t="n">
+        <v>71376.38478147394</v>
+      </c>
+      <c r="L4" t="n">
         <v>71376.38478147393</v>
       </c>
-      <c r="L4" t="n">
-        <v>71376.38478147394</v>
-      </c>
       <c r="M4" t="n">
-        <v>71376.38478147394</v>
+        <v>71376.38478147393</v>
       </c>
       <c r="N4" t="n">
         <v>71376.38478147393</v>
       </c>
       <c r="O4" t="n">
-        <v>50270.54141635471</v>
+        <v>44984.32219614572</v>
       </c>
       <c r="P4" t="n">
-        <v>50270.5414163547</v>
+        <v>44984.3221961457</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>31979.26365349637</v>
+        <v>27658.23341427975</v>
       </c>
       <c r="F5" t="n">
-        <v>31979.26365349636</v>
+        <v>32746.39430368422</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>36048.28730032554</v>
+        <v>32746.39430368421</v>
       </c>
       <c r="P5" t="n">
-        <v>36048.28730032554</v>
+        <v>32746.39430368421</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33920.16582826234</v>
+        <v>-22923.95627022592</v>
       </c>
       <c r="C6" t="n">
-        <v>46849.26570328536</v>
+        <v>57845.47526132178</v>
       </c>
       <c r="D6" t="n">
-        <v>46849.26570328536</v>
+        <v>57845.47526132181</v>
       </c>
       <c r="E6" t="n">
-        <v>-88845.37910146354</v>
+        <v>-38108.50329376842</v>
       </c>
       <c r="F6" t="n">
-        <v>129303.3398397196</v>
+        <v>-26934.63782699768</v>
       </c>
       <c r="G6" t="n">
-        <v>-27615.41831338024</v>
+        <v>108081.1582989833</v>
       </c>
       <c r="H6" t="n">
-        <v>176933.9639258428</v>
+        <v>182395.5362970801</v>
       </c>
       <c r="I6" t="n">
-        <v>176933.9639258427</v>
+        <v>182395.53629708</v>
       </c>
       <c r="J6" t="n">
-        <v>113874.0213267366</v>
+        <v>119335.5936979738</v>
       </c>
       <c r="K6" t="n">
-        <v>176933.9639258428</v>
+        <v>182395.5362970801</v>
       </c>
       <c r="L6" t="n">
-        <v>176933.9639258427</v>
+        <v>182395.5362970801</v>
       </c>
       <c r="M6" t="n">
-        <v>122995.2063919748</v>
+        <v>141990.412683196</v>
       </c>
       <c r="N6" t="n">
-        <v>176933.963925843</v>
+        <v>182395.53629708</v>
       </c>
       <c r="O6" t="n">
-        <v>154760.4154476721</v>
+        <v>157556.7077796681</v>
       </c>
       <c r="P6" t="n">
-        <v>154760.4154476721</v>
+        <v>157556.707779668</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>191.0912033533625</v>
+        <v>144.3417885563313</v>
       </c>
       <c r="F3" t="n">
-        <v>191.0912033533625</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>457.4584773090965</v>
+        <v>403.151026706443</v>
       </c>
       <c r="F4" t="n">
-        <v>457.4584773090964</v>
+        <v>403.151026706443</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26819,19 +26819,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4584773090963</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4584773090963</v>
+        <v>403.1510267064429</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>191.0912033533625</v>
+        <v>144.3417885563313</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>233.4018756607554</v>
       </c>
       <c r="G3" t="n">
-        <v>186.6524608637242</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>216.4441884314373</v>
+        <v>162.1367378287839</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.8287954454592</v>
+        <v>271.1362460481126</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>216.4441884314373</v>
+        <v>162.136737828784</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>216.4441884314373</v>
+        <v>162.1367378287839</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.8287954454592</v>
+        <v>271.1362460481126</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7682058426265822</v>
+        <v>0.580268496708869</v>
       </c>
       <c r="H11" t="n">
-        <v>7.867388085799487</v>
+        <v>5.942674741919707</v>
       </c>
       <c r="I11" t="n">
-        <v>29.61625574786134</v>
+        <v>22.3708012193687</v>
       </c>
       <c r="J11" t="n">
-        <v>65.20051063562794</v>
+        <v>49.24956332254443</v>
       </c>
       <c r="K11" t="n">
-        <v>97.71866395401118</v>
+        <v>73.81232878823087</v>
       </c>
       <c r="L11" t="n">
-        <v>121.2286435102945</v>
+        <v>91.57072079438494</v>
       </c>
       <c r="M11" t="n">
-        <v>134.8902241641049</v>
+        <v>101.8900706727313</v>
       </c>
       <c r="N11" t="n">
-        <v>137.0728890144677</v>
+        <v>103.5387585390054</v>
       </c>
       <c r="O11" t="n">
-        <v>129.4340421668497</v>
+        <v>97.76871367485654</v>
       </c>
       <c r="P11" t="n">
-        <v>110.4689604270059</v>
+        <v>83.44333516235632</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.95758868794138</v>
+        <v>62.66246962396993</v>
       </c>
       <c r="R11" t="n">
-        <v>48.25581026189209</v>
+        <v>36.45029095638853</v>
       </c>
       <c r="S11" t="n">
-        <v>17.50549063885326</v>
+        <v>13.22286836875337</v>
       </c>
       <c r="T11" t="n">
-        <v>3.362821076097865</v>
+        <v>2.540125344343076</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06145646741012656</v>
+        <v>0.04642147973670951</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.411026361929874</v>
+        <v>0.3104710168947503</v>
       </c>
       <c r="H12" t="n">
-        <v>3.969649337585889</v>
+        <v>2.998496400009826</v>
       </c>
       <c r="I12" t="n">
-        <v>14.15156553135751</v>
+        <v>10.6894626430868</v>
       </c>
       <c r="J12" t="n">
-        <v>38.83297746636586</v>
+        <v>29.33270252162201</v>
       </c>
       <c r="K12" t="n">
-        <v>66.37174371566742</v>
+        <v>50.13426065357028</v>
       </c>
       <c r="L12" t="n">
-        <v>89.24500020762461</v>
+        <v>67.41170040076587</v>
       </c>
       <c r="M12" t="n">
-        <v>104.1447058275825</v>
+        <v>78.66627476320055</v>
       </c>
       <c r="N12" t="n">
-        <v>106.9011062985947</v>
+        <v>80.74833697737633</v>
       </c>
       <c r="O12" t="n">
-        <v>97.7936274368854</v>
+        <v>73.86895286618211</v>
       </c>
       <c r="P12" t="n">
-        <v>78.48800765659146</v>
+        <v>59.28634707703352</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.46715455090813</v>
+        <v>39.63135296361761</v>
       </c>
       <c r="R12" t="n">
-        <v>25.51968938368113</v>
+        <v>19.27643734720214</v>
       </c>
       <c r="S12" t="n">
-        <v>7.634634398127259</v>
+        <v>5.766862967321345</v>
       </c>
       <c r="T12" t="n">
-        <v>1.656724678129623</v>
+        <v>1.251416072483664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02704120802170224</v>
+        <v>0.02042572479570727</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3445906945716372</v>
+        <v>0.2602884711671548</v>
       </c>
       <c r="H13" t="n">
-        <v>3.063724539009649</v>
+        <v>2.314201134558887</v>
       </c>
       <c r="I13" t="n">
-        <v>10.36278197857251</v>
+        <v>7.827584205644984</v>
       </c>
       <c r="J13" t="n">
-        <v>24.36256210621475</v>
+        <v>18.40239491151784</v>
       </c>
       <c r="K13" t="n">
-        <v>40.03517342386839</v>
+        <v>30.24078783196579</v>
       </c>
       <c r="L13" t="n">
-        <v>51.23123835476868</v>
+        <v>38.69779688606955</v>
       </c>
       <c r="M13" t="n">
-        <v>54.01615769544308</v>
+        <v>40.8014009848659</v>
       </c>
       <c r="N13" t="n">
-        <v>52.7317741974943</v>
+        <v>39.83123486506108</v>
       </c>
       <c r="O13" t="n">
-        <v>48.70632835636197</v>
+        <v>36.79059227006294</v>
       </c>
       <c r="P13" t="n">
-        <v>41.67667818710054</v>
+        <v>31.48070745825296</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.85477170635773</v>
+        <v>21.79561007200602</v>
       </c>
       <c r="R13" t="n">
-        <v>15.49405068501197</v>
+        <v>11.70351616720679</v>
       </c>
       <c r="S13" t="n">
-        <v>6.005276013580257</v>
+        <v>4.536118174794868</v>
       </c>
       <c r="T13" t="n">
-        <v>1.472342058624267</v>
+        <v>1.112141649532388</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01879585606754387</v>
+        <v>0.01419755297275391</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7682058426265823</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>7.867388085799488</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>29.61625574786134</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>65.20051063562795</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>97.71866395401119</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>121.2286435102945</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>134.890224164105</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>137.0728890144678</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>129.4340421668497</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>110.4689604270059</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.9575886879414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>48.25581026189209</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>17.50549063885326</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>3.362821076097866</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06145646741012657</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.411026361929874</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>3.969649337585889</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>14.15156553135751</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>38.83297746636587</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>66.37174371566742</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>89.24500020762463</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>104.1447058275825</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>106.9011062985947</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>97.79362743688542</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>78.48800765659148</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.46715455090813</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>25.51968938368114</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>7.63463439812726</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>1.656724678129623</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02704120802170225</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3445906945716372</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>3.063724539009649</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>10.36278197857251</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>24.36256210621475</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>40.03517342386839</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>51.23123835476869</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>54.01615769544309</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>52.7317741974943</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>48.70632835636198</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>41.67667818710054</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.85477170635773</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>15.49405068501198</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>6.005276013580258</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>1.472342058624268</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01879585606754387</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>53.25122128101542</v>
+        <v>37.30027396793191</v>
       </c>
       <c r="K11" t="n">
-        <v>201.7742254801954</v>
+        <v>177.8678903144151</v>
       </c>
       <c r="L11" t="n">
-        <v>303.1234430907577</v>
+        <v>273.4655203748482</v>
       </c>
       <c r="M11" t="n">
-        <v>354.0575244296647</v>
+        <v>321.0573709382911</v>
       </c>
       <c r="N11" t="n">
-        <v>345.006749829861</v>
+        <v>311.4726193543986</v>
       </c>
       <c r="O11" t="n">
-        <v>280.1360120079083</v>
+        <v>248.4706835159152</v>
       </c>
       <c r="P11" t="n">
-        <v>201.034672843219</v>
+        <v>174.0090475785694</v>
       </c>
       <c r="Q11" t="n">
-        <v>72.96688947339658</v>
+        <v>52.67177040942513</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>28.58611119536415</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>176.7580586917899</v>
       </c>
       <c r="L12" t="n">
-        <v>316.6971630702703</v>
+        <v>299.6976659243509</v>
       </c>
       <c r="M12" t="n">
-        <v>427.7157356555641</v>
+        <v>402.2373045911821</v>
       </c>
       <c r="N12" t="n">
-        <v>454.901768558815</v>
+        <v>10.39943343655465</v>
       </c>
       <c r="O12" t="n">
-        <v>349.0597022691705</v>
+        <v>325.1350276984672</v>
       </c>
       <c r="P12" t="n">
-        <v>262.9763688821984</v>
+        <v>243.7747083026404</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>109.7268666134452</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>17.76568159798553</v>
+        <v>7.971296006082941</v>
       </c>
       <c r="L13" t="n">
-        <v>78.82126361508483</v>
+        <v>66.28782214638568</v>
       </c>
       <c r="M13" t="n">
-        <v>93.60003465728367</v>
+        <v>80.38527794670648</v>
       </c>
       <c r="N13" t="n">
-        <v>96.8639465767229</v>
+        <v>83.96340724428967</v>
       </c>
       <c r="O13" t="n">
-        <v>73.29145627040165</v>
+        <v>61.37572018410262</v>
       </c>
       <c r="P13" t="n">
-        <v>38.95523745199403</v>
+        <v>28.75926672314645</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.25122128101543</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>201.7742254801954</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>303.1234430907577</v>
+        <v>403.151026706443</v>
       </c>
       <c r="M14" t="n">
-        <v>354.0575244296647</v>
+        <v>36.30093131326399</v>
       </c>
       <c r="N14" t="n">
-        <v>345.006749829861</v>
+        <v>173.8398406079646</v>
       </c>
       <c r="O14" t="n">
-        <v>280.1360120079083</v>
+        <v>403.151026706443</v>
       </c>
       <c r="P14" t="n">
-        <v>201.034672843219</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>72.96688947339659</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>192.995541753887</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>321.5309657312096</v>
+        <v>403.151026706443</v>
       </c>
       <c r="M15" t="n">
-        <v>427.7157356555641</v>
+        <v>257.2206357000804</v>
       </c>
       <c r="N15" t="n">
-        <v>454.901768558815</v>
+        <v>79.97735909033671</v>
       </c>
       <c r="O15" t="n">
-        <v>349.0597022691705</v>
+        <v>403.151026706443</v>
       </c>
       <c r="P15" t="n">
-        <v>65.14702446737176</v>
+        <v>21.17845723362748</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>17.76568159798554</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>78.82126361508483</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>93.60003465728369</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>96.8639465767229</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>73.29145627040165</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>38.95523745199403</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35980,7 +35980,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36205,22 +36205,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36445,7 +36445,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37785,13 +37785,13 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="M41" t="n">
-        <v>445.4071481109268</v>
+        <v>41.15190928645612</v>
       </c>
       <c r="N41" t="n">
-        <v>41.54873083723948</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="O41" t="n">
         <v>25.76332749029979</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="M42" t="n">
-        <v>457.4584773090963</v>
+        <v>370.3945380770071</v>
       </c>
       <c r="N42" t="n">
-        <v>457.4584773090963</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O42" t="n">
-        <v>132.7094670519753</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="P42" t="n">
-        <v>21.17845723362746</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>58.36903726329584</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="M44" t="n">
-        <v>457.4584773090963</v>
+        <v>36.30093131326393</v>
       </c>
       <c r="N44" t="n">
         <v>41.54873083723948</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>238.2190950428263</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>37.86260226792652</v>
       </c>
       <c r="M45" t="n">
-        <v>63.73626307629385</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="N45" t="n">
-        <v>123.0518904733197</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>403.1510267064429</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>91.1739178634092</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
